--- a/Code/Results/Cases/Case_1_82/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_1_82/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>0.9861030629207063</v>
+        <v>1.040393660519047</v>
       </c>
       <c r="D2">
-        <v>1.035530279901123</v>
+        <v>1.052731842878131</v>
       </c>
       <c r="E2">
-        <v>1.006863641962571</v>
+        <v>1.048992874139455</v>
       </c>
       <c r="F2">
-        <v>1.024808109724694</v>
+        <v>1.060435114373241</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.049348643067775</v>
+        <v>1.038162686421549</v>
       </c>
       <c r="J2">
-        <v>1.008707525521092</v>
+        <v>1.045480507182045</v>
       </c>
       <c r="K2">
-        <v>1.046515856429393</v>
+        <v>1.055479762953657</v>
       </c>
       <c r="L2">
-        <v>1.018228176419966</v>
+        <v>1.051751172556009</v>
       </c>
       <c r="M2">
-        <v>1.035932317424029</v>
+        <v>1.063161902151157</v>
       </c>
       <c r="N2">
-        <v>1.005809454308587</v>
+        <v>1.018898674364074</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>0.9932962262913833</v>
+        <v>1.041867824937321</v>
       </c>
       <c r="D3">
-        <v>1.039575618771631</v>
+        <v>1.053544703387799</v>
       </c>
       <c r="E3">
-        <v>1.012724855150509</v>
+        <v>1.050238236439371</v>
       </c>
       <c r="F3">
-        <v>1.030408302796475</v>
+        <v>1.061612165095181</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.05058778698739</v>
+        <v>1.038332649511734</v>
       </c>
       <c r="J3">
-        <v>1.013971326350597</v>
+        <v>1.046597652730279</v>
       </c>
       <c r="K3">
-        <v>1.049725976428762</v>
+        <v>1.056105527734218</v>
       </c>
       <c r="L3">
-        <v>1.023197467443306</v>
+        <v>1.052807572192282</v>
       </c>
       <c r="M3">
-        <v>1.040666343603754</v>
+        <v>1.064152462235481</v>
       </c>
       <c r="N3">
-        <v>1.007675896820446</v>
+        <v>1.019283512923265</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>0.9978211143508056</v>
+        <v>1.042821091374123</v>
       </c>
       <c r="D4">
-        <v>1.042123538621365</v>
+        <v>1.054069511238092</v>
       </c>
       <c r="E4">
-        <v>1.016418619291239</v>
+        <v>1.051043632110217</v>
       </c>
       <c r="F4">
-        <v>1.033937242884777</v>
+        <v>1.062373030382255</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.051355232482642</v>
+        <v>1.038440833770517</v>
       </c>
       <c r="J4">
-        <v>1.017280720945906</v>
+        <v>1.047319514645559</v>
       </c>
       <c r="K4">
-        <v>1.051738821999237</v>
+        <v>1.056508622750124</v>
       </c>
       <c r="L4">
-        <v>1.02632284372418</v>
+        <v>1.053490138980301</v>
       </c>
       <c r="M4">
-        <v>1.043642627816506</v>
+        <v>1.064792080327734</v>
       </c>
       <c r="N4">
-        <v>1.008847621727352</v>
+        <v>1.01953182650147</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>0.9996940399032453</v>
+        <v>1.043221702675756</v>
       </c>
       <c r="D5">
-        <v>1.043178685880706</v>
+        <v>1.05428986177078</v>
       </c>
       <c r="E5">
-        <v>1.017949017887988</v>
+        <v>1.051382119395412</v>
       </c>
       <c r="F5">
-        <v>1.03539920380911</v>
+        <v>1.062692717629232</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.051669897911528</v>
+        <v>1.038485885348872</v>
       </c>
       <c r="J5">
-        <v>1.018650019868059</v>
+        <v>1.047622748418013</v>
       </c>
       <c r="K5">
-        <v>1.052570228656569</v>
+        <v>1.056677649881117</v>
       </c>
       <c r="L5">
-        <v>1.027616241838027</v>
+        <v>1.053776855249788</v>
       </c>
       <c r="M5">
-        <v>1.044873995098282</v>
+        <v>1.065060657300485</v>
       </c>
       <c r="N5">
-        <v>1.009332000877098</v>
+        <v>1.019636050493136</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.000006838425004</v>
+        <v>1.043288958919428</v>
       </c>
       <c r="D6">
-        <v>1.043354930581529</v>
+        <v>1.054326843274073</v>
       </c>
       <c r="E6">
-        <v>1.018204694713496</v>
+        <v>1.051438947077474</v>
       </c>
       <c r="F6">
-        <v>1.035643436432159</v>
+        <v>1.062746384016491</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.051722271476807</v>
+        <v>1.038493424551629</v>
       </c>
       <c r="J6">
-        <v>1.018878675002358</v>
+        <v>1.047673648917903</v>
       </c>
       <c r="K6">
-        <v>1.052708974713021</v>
+        <v>1.056706004855091</v>
       </c>
       <c r="L6">
-        <v>1.027832235583331</v>
+        <v>1.053824982498157</v>
       </c>
       <c r="M6">
-        <v>1.045079608697877</v>
+        <v>1.065105733951474</v>
       </c>
       <c r="N6">
-        <v>1.009412859699545</v>
+        <v>1.019653540399358</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>0.9978462536239577</v>
+        <v>1.04282644491249</v>
       </c>
       <c r="D7">
-        <v>1.042137699543477</v>
+        <v>1.05407245666686</v>
       </c>
       <c r="E7">
-        <v>1.01643915528318</v>
+        <v>1.051048155386552</v>
       </c>
       <c r="F7">
-        <v>1.033956861203718</v>
+        <v>1.062377302764921</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.051359468041379</v>
+        <v>1.03844143743767</v>
       </c>
       <c r="J7">
-        <v>1.017299102441037</v>
+        <v>1.04732356739646</v>
       </c>
       <c r="K7">
-        <v>1.05174998865818</v>
+        <v>1.056510883003236</v>
       </c>
       <c r="L7">
-        <v>1.02634020542538</v>
+        <v>1.053493971015741</v>
       </c>
       <c r="M7">
-        <v>1.043659158245448</v>
+        <v>1.064795670314767</v>
       </c>
       <c r="N7">
-        <v>1.008854125792171</v>
+        <v>1.019533219802413</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>0.9885619104579567</v>
+        <v>1.040891992368139</v>
       </c>
       <c r="D8">
-        <v>1.036912278189576</v>
+        <v>1.053006795040693</v>
       </c>
       <c r="E8">
-        <v>1.008865683272654</v>
+        <v>1.049413842797279</v>
       </c>
       <c r="F8">
-        <v>1.026721018406132</v>
+        <v>1.060833064241002</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.049774694454446</v>
+        <v>1.038220497676018</v>
       </c>
       <c r="J8">
-        <v>1.010507191431642</v>
+        <v>1.045858262362809</v>
       </c>
       <c r="K8">
-        <v>1.04761442702506</v>
+        <v>1.055691619781082</v>
       </c>
       <c r="L8">
-        <v>1.019926887636304</v>
+        <v>1.05210839562438</v>
       </c>
       <c r="M8">
-        <v>1.037550803900443</v>
+        <v>1.063496945612151</v>
       </c>
       <c r="N8">
-        <v>1.00644793082035</v>
+        <v>1.019028878575625</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>0.9711260260506973</v>
+        <v>1.037478263005937</v>
       </c>
       <c r="D9">
-        <v>1.027137091284734</v>
+        <v>1.051119988241249</v>
       </c>
       <c r="E9">
-        <v>0.9947040473722719</v>
+        <v>1.046530467826436</v>
       </c>
       <c r="F9">
-        <v>1.013191587528053</v>
+        <v>1.058105936928422</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.046706219235279</v>
+        <v>1.037817429331266</v>
       </c>
       <c r="J9">
-        <v>0.9977412832353519</v>
+        <v>1.043268330267437</v>
       </c>
       <c r="K9">
-        <v>1.039804713369698</v>
+        <v>1.054234018927504</v>
       </c>
       <c r="L9">
-        <v>1.007883636097519</v>
+        <v>1.049659072231642</v>
       </c>
       <c r="M9">
-        <v>1.026074205573629</v>
+        <v>1.061198049382963</v>
       </c>
       <c r="N9">
-        <v>1.001912435466696</v>
+        <v>1.018134729341642</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.9586483501271212</v>
+        <v>1.035198739282798</v>
       </c>
       <c r="D10">
-        <v>1.020186757126333</v>
+        <v>1.049856030061594</v>
       </c>
       <c r="E10">
-        <v>0.9846217992930631</v>
+        <v>1.044605633152152</v>
       </c>
       <c r="F10">
-        <v>1.003565497864945</v>
+        <v>1.056283658148425</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.044455291686831</v>
+        <v>1.037539460253379</v>
       </c>
       <c r="J10">
-        <v>0.988604425864157</v>
+        <v>1.041536168864759</v>
       </c>
       <c r="K10">
-        <v>1.034200854311619</v>
+        <v>1.053252842331894</v>
       </c>
       <c r="L10">
-        <v>0.9992743762242599</v>
+        <v>1.048020763976659</v>
       </c>
       <c r="M10">
-        <v>1.017870673180768</v>
+        <v>1.059658317285326</v>
       </c>
       <c r="N10">
-        <v>0.9986591427315635</v>
+        <v>1.017534899242527</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9530088821235398</v>
+        <v>1.034210721676216</v>
       </c>
       <c r="D11">
-        <v>1.017060982645071</v>
+        <v>1.049307265565162</v>
       </c>
       <c r="E11">
-        <v>0.9800800950755943</v>
+        <v>1.043771494328792</v>
       </c>
       <c r="F11">
-        <v>0.9992321047584329</v>
+        <v>1.055493557342103</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.043426830436788</v>
+        <v>1.037416896905845</v>
       </c>
       <c r="J11">
-        <v>0.9844761914853426</v>
+        <v>1.040784755059387</v>
       </c>
       <c r="K11">
-        <v>1.031668169832367</v>
+        <v>1.052825727908975</v>
       </c>
       <c r="L11">
-        <v>0.9953877094922855</v>
+        <v>1.047310024754021</v>
       </c>
       <c r="M11">
-        <v>1.014168517002671</v>
+        <v>1.058989868143454</v>
       </c>
       <c r="N11">
-        <v>0.9971879407018127</v>
+        <v>1.017274264108796</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9508752562864949</v>
+        <v>1.033843575427478</v>
       </c>
       <c r="D12">
-        <v>1.015881171695772</v>
+        <v>1.049103209067178</v>
       </c>
       <c r="E12">
-        <v>0.9783643247731817</v>
+        <v>1.043461552472982</v>
       </c>
       <c r="F12">
-        <v>0.9975955874519111</v>
+        <v>1.055199918671496</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.043036236641711</v>
+        <v>1.037371040338728</v>
       </c>
       <c r="J12">
-        <v>0.9829146699920839</v>
+        <v>1.040505434914882</v>
       </c>
       <c r="K12">
-        <v>1.030710309728305</v>
+        <v>1.052666737919929</v>
       </c>
       <c r="L12">
-        <v>0.9939181098899847</v>
+        <v>1.047045818991387</v>
       </c>
       <c r="M12">
-        <v>1.012768997643054</v>
+        <v>1.058741312503428</v>
       </c>
       <c r="N12">
-        <v>0.9966312958728498</v>
+        <v>1.017177315161725</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9513347437602435</v>
+        <v>1.03392233655819</v>
       </c>
       <c r="D13">
-        <v>1.016135116510124</v>
+        <v>1.049146989896405</v>
       </c>
       <c r="E13">
-        <v>0.9787337062541738</v>
+        <v>1.043528040902242</v>
       </c>
       <c r="F13">
-        <v>0.997947879454877</v>
+        <v>1.055262912462175</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.043120417084777</v>
+        <v>1.037380891717085</v>
       </c>
       <c r="J13">
-        <v>0.9832509335391016</v>
+        <v>1.040565359686773</v>
       </c>
       <c r="K13">
-        <v>1.030916568235171</v>
+        <v>1.052700857250645</v>
       </c>
       <c r="L13">
-        <v>0.9942345527356337</v>
+        <v>1.047102501393055</v>
       </c>
       <c r="M13">
-        <v>1.013070334287628</v>
+        <v>1.058794640524166</v>
       </c>
       <c r="N13">
-        <v>0.9967511721688437</v>
+        <v>1.01719811728466</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9528333298263295</v>
+        <v>1.034180376404526</v>
       </c>
       <c r="D14">
-        <v>1.016963849817814</v>
+        <v>1.049290402705554</v>
       </c>
       <c r="E14">
-        <v>0.9799388705668453</v>
+        <v>1.043745876617704</v>
       </c>
       <c r="F14">
-        <v>0.9990973914289549</v>
+        <v>1.0554692883633</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.043394721883776</v>
+        <v>1.037413113144158</v>
       </c>
       <c r="J14">
-        <v>0.9843477033138457</v>
+        <v>1.040761670713552</v>
       </c>
       <c r="K14">
-        <v>1.031589348998161</v>
+        <v>1.05281259270451</v>
       </c>
       <c r="L14">
-        <v>0.9952667734818241</v>
+        <v>1.047288189640682</v>
       </c>
       <c r="M14">
-        <v>1.014053340960131</v>
+        <v>1.058969327858125</v>
       </c>
       <c r="N14">
-        <v>0.9971421407114883</v>
+        <v>1.017266253091466</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9537513996296164</v>
+        <v>1.034339342851016</v>
       </c>
       <c r="D15">
-        <v>1.017471932659947</v>
+        <v>1.049378734757566</v>
       </c>
       <c r="E15">
-        <v>0.9806775239041333</v>
+        <v>1.043880078269377</v>
       </c>
       <c r="F15">
-        <v>0.9998020125064796</v>
+        <v>1.055596422053865</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.043562577708877</v>
+        <v>1.037432921944389</v>
       </c>
       <c r="J15">
-        <v>0.9850196612078286</v>
+        <v>1.040882596233072</v>
       </c>
       <c r="K15">
-        <v>1.032001567492305</v>
+        <v>1.052881391421487</v>
       </c>
       <c r="L15">
-        <v>0.9958992583488236</v>
+        <v>1.047402570935182</v>
       </c>
       <c r="M15">
-        <v>1.014655715171504</v>
+        <v>1.059076923428881</v>
       </c>
       <c r="N15">
-        <v>0.9973816559609212</v>
+        <v>1.017308215551026</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.9590173637896772</v>
+        <v>1.035264289752142</v>
       </c>
       <c r="D16">
-        <v>1.020391648279825</v>
+        <v>1.049892418840206</v>
       </c>
       <c r="E16">
-        <v>0.9849193158058623</v>
+        <v>1.044660977642916</v>
       </c>
       <c r="F16">
-        <v>1.003849437835695</v>
+        <v>1.056336072284097</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.044522372894626</v>
+        <v>1.037547547972775</v>
       </c>
       <c r="J16">
-        <v>0.9888745925825345</v>
+        <v>1.041586008314333</v>
       </c>
       <c r="K16">
-        <v>1.034366607560634</v>
+        <v>1.053281140809892</v>
       </c>
       <c r="L16">
-        <v>0.9995288055223693</v>
+        <v>1.048067904795969</v>
       </c>
       <c r="M16">
-        <v>1.018113061085018</v>
+        <v>1.05970264322635</v>
       </c>
       <c r="N16">
-        <v>0.9987553998739986</v>
+        <v>1.017552177546053</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.9622550047455388</v>
+        <v>1.03584422022522</v>
       </c>
       <c r="D17">
-        <v>1.022191120071092</v>
+        <v>1.050214246934122</v>
       </c>
       <c r="E17">
-        <v>0.9875313921338132</v>
+        <v>1.045150631924554</v>
       </c>
       <c r="F17">
-        <v>1.006342651899987</v>
+        <v>1.056799753882845</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.045109692616323</v>
+        <v>1.037618860312269</v>
       </c>
       <c r="J17">
-        <v>0.9912451367183122</v>
+        <v>1.042026868224827</v>
       </c>
       <c r="K17">
-        <v>1.035820933230743</v>
+        <v>1.053531287423098</v>
       </c>
       <c r="L17">
-        <v>1.001761631172688</v>
+        <v>1.048484889248932</v>
       </c>
       <c r="M17">
-        <v>1.02024037794744</v>
+        <v>1.06009467396498</v>
       </c>
       <c r="N17">
-        <v>0.9995998543927843</v>
+        <v>1.017704965160524</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.9641208885313032</v>
+        <v>1.036182390857445</v>
       </c>
       <c r="D18">
-        <v>1.023229601681937</v>
+        <v>1.050401822815365</v>
       </c>
       <c r="E18">
-        <v>0.9890381600612858</v>
+        <v>1.045436174381919</v>
       </c>
       <c r="F18">
-        <v>1.007781111646949</v>
+        <v>1.057070111208398</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.045447112235715</v>
+        <v>1.037660243267602</v>
       </c>
       <c r="J18">
-        <v>0.9926114160156971</v>
+        <v>1.042283881867126</v>
       </c>
       <c r="K18">
-        <v>1.036659057217454</v>
+        <v>1.053676975893755</v>
       </c>
       <c r="L18">
-        <v>1.003048830420152</v>
+        <v>1.048727980124275</v>
       </c>
       <c r="M18">
-        <v>1.021466871197966</v>
+        <v>1.060323171680263</v>
       </c>
       <c r="N18">
-        <v>1.000086437385925</v>
+        <v>1.017793996400547</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.9647533717954901</v>
+        <v>1.036297682739239</v>
       </c>
       <c r="D19">
-        <v>1.023581847937878</v>
+        <v>1.050465757464027</v>
       </c>
       <c r="E19">
-        <v>0.9895491437248525</v>
+        <v>1.045533526158401</v>
       </c>
       <c r="F19">
-        <v>1.008268970170614</v>
+        <v>1.057162279160895</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.045561303510961</v>
+        <v>1.037674317784269</v>
       </c>
       <c r="J19">
-        <v>0.9930745618486454</v>
+        <v>1.042371494550038</v>
       </c>
       <c r="K19">
-        <v>1.036943145551197</v>
+        <v>1.053726614992416</v>
       </c>
       <c r="L19">
-        <v>1.003485217540403</v>
+        <v>1.048810846056492</v>
       </c>
       <c r="M19">
-        <v>1.021882694702446</v>
+        <v>1.060401055235464</v>
       </c>
       <c r="N19">
-        <v>1.000251358768866</v>
+        <v>1.017824339009463</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.9619099945807527</v>
+        <v>1.035782008844023</v>
       </c>
       <c r="D20">
-        <v>1.021999212850268</v>
+        <v>1.050179732418937</v>
       </c>
       <c r="E20">
-        <v>0.9872528959743032</v>
+        <v>1.045098103368823</v>
       </c>
       <c r="F20">
-        <v>1.006076801075303</v>
+        <v>1.056750015636144</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.045047215271631</v>
+        <v>1.0376112311381</v>
       </c>
       <c r="J20">
-        <v>0.9909925136679066</v>
+        <v>1.0419795818671</v>
       </c>
       <c r="K20">
-        <v>1.035665956629806</v>
+        <v>1.053504471598666</v>
       </c>
       <c r="L20">
-        <v>1.0015236533289</v>
+        <v>1.048440164146881</v>
       </c>
       <c r="M20">
-        <v>1.02001363229604</v>
+        <v>1.06005263009264</v>
       </c>
       <c r="N20">
-        <v>0.9995098755983434</v>
+        <v>1.017688581525095</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.952393135697478</v>
+        <v>1.034104394367651</v>
       </c>
       <c r="D21">
-        <v>1.016720337527134</v>
+        <v>1.049248177316566</v>
       </c>
       <c r="E21">
-        <v>0.9795847943390127</v>
+        <v>1.043681732379001</v>
       </c>
       <c r="F21">
-        <v>0.9987596493778953</v>
+        <v>1.055408520250604</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.043314187011622</v>
+        <v>1.037403633879914</v>
       </c>
       <c r="J21">
-        <v>0.9840255277316889</v>
+        <v>1.040703867888979</v>
       </c>
       <c r="K21">
-        <v>1.031391714082896</v>
+        <v>1.052779698813627</v>
       </c>
       <c r="L21">
-        <v>0.9949635435031677</v>
+        <v>1.047233514787775</v>
       </c>
       <c r="M21">
-        <v>1.013764558746126</v>
+        <v>1.058917894102096</v>
       </c>
       <c r="N21">
-        <v>0.9970272978822051</v>
+        <v>1.017246192601306</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9461826031508039</v>
+        <v>1.033048725660299</v>
       </c>
       <c r="D22">
-        <v>1.013292007254871</v>
+        <v>1.048661192784879</v>
       </c>
       <c r="E22">
-        <v>0.9745956723524827</v>
+        <v>1.042790590758119</v>
       </c>
       <c r="F22">
-        <v>0.9940021977877795</v>
+        <v>1.054564141096988</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.042174646469541</v>
+        <v>1.037271193486909</v>
       </c>
       <c r="J22">
-        <v>0.9794811141592532</v>
+        <v>1.039900549225213</v>
       </c>
       <c r="K22">
-        <v>1.028604667024275</v>
+        <v>1.052322033666761</v>
       </c>
       <c r="L22">
-        <v>0.9906877703684924</v>
+        <v>1.046473655026667</v>
       </c>
       <c r="M22">
-        <v>1.009693416094972</v>
+        <v>1.058202912294017</v>
       </c>
       <c r="N22">
-        <v>0.9954070713757662</v>
+        <v>1.016967249098488</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.949497662008186</v>
+        <v>1.033608441924523</v>
       </c>
       <c r="D23">
-        <v>1.015120263355516</v>
+        <v>1.048972486032536</v>
       </c>
       <c r="E23">
-        <v>0.97725727052713</v>
+        <v>1.043263061400003</v>
       </c>
       <c r="F23">
-        <v>0.9965398437859373</v>
+        <v>1.055011851575952</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.042783651338501</v>
+        <v>1.037341584379447</v>
       </c>
       <c r="J23">
-        <v>0.981906578135184</v>
+        <v>1.040326521529508</v>
       </c>
       <c r="K23">
-        <v>1.030092003505333</v>
+        <v>1.052564837977508</v>
       </c>
       <c r="L23">
-        <v>0.992969524993623</v>
+        <v>1.046876585373671</v>
       </c>
       <c r="M23">
-        <v>1.011865751200663</v>
+        <v>1.058582083614892</v>
       </c>
       <c r="N23">
-        <v>0.9962718962040749</v>
+        <v>1.01711519829346</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.9620659593472032</v>
+        <v>1.035810119777039</v>
       </c>
       <c r="D24">
-        <v>1.022085961730889</v>
+        <v>1.050195328478798</v>
       </c>
       <c r="E24">
-        <v>0.9873787881825992</v>
+        <v>1.045121838962098</v>
       </c>
       <c r="F24">
-        <v>1.006196976261341</v>
+        <v>1.056772490519255</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.045075461985239</v>
+        <v>1.03761467908973</v>
       </c>
       <c r="J24">
-        <v>0.991106713720915</v>
+        <v>1.04200094894643</v>
       </c>
       <c r="K24">
-        <v>1.035736015195568</v>
+        <v>1.053516589188829</v>
       </c>
       <c r="L24">
-        <v>1.001631232000782</v>
+        <v>1.048460373894581</v>
       </c>
       <c r="M24">
-        <v>1.020116133058011</v>
+        <v>1.060071628425759</v>
       </c>
       <c r="N24">
-        <v>0.9995505515428992</v>
+        <v>1.01769598485427</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>0.9757736587247003</v>
+        <v>1.038361420407233</v>
       </c>
       <c r="D25">
-        <v>1.029736487756416</v>
+        <v>1.051608841952298</v>
       </c>
       <c r="E25">
-        <v>0.998470811171131</v>
+        <v>1.047276328250823</v>
       </c>
       <c r="F25">
-        <v>1.01678957569119</v>
+        <v>1.058811691210433</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.047534101224905</v>
+        <v>1.037923262542851</v>
       </c>
       <c r="J25">
-        <v>1.001144776794124</v>
+        <v>1.043938848313641</v>
       </c>
       <c r="K25">
-        <v>1.041890077301871</v>
+        <v>1.054612503521149</v>
       </c>
       <c r="L25">
-        <v>1.011092912299661</v>
+        <v>1.050293222161848</v>
       </c>
       <c r="M25">
-        <v>1.029132728416665</v>
+        <v>1.061793615065696</v>
       </c>
       <c r="N25">
-        <v>1.003122972041942</v>
+        <v>1.0183665402894</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_82/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_1_82/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.040393660519047</v>
+        <v>0.9861030629207058</v>
       </c>
       <c r="D2">
-        <v>1.052731842878131</v>
+        <v>1.035530279901123</v>
       </c>
       <c r="E2">
-        <v>1.048992874139455</v>
+        <v>1.00686364196257</v>
       </c>
       <c r="F2">
-        <v>1.060435114373241</v>
+        <v>1.024808109724694</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.038162686421549</v>
+        <v>1.049348643067775</v>
       </c>
       <c r="J2">
-        <v>1.045480507182045</v>
+        <v>1.008707525521092</v>
       </c>
       <c r="K2">
-        <v>1.055479762953657</v>
+        <v>1.046515856429393</v>
       </c>
       <c r="L2">
-        <v>1.051751172556009</v>
+        <v>1.018228176419966</v>
       </c>
       <c r="M2">
-        <v>1.063161902151157</v>
+        <v>1.035932317424029</v>
       </c>
       <c r="N2">
-        <v>1.018898674364074</v>
+        <v>1.005809454308587</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.041867824937321</v>
+        <v>0.9932962262913835</v>
       </c>
       <c r="D3">
-        <v>1.053544703387799</v>
+        <v>1.039575618771632</v>
       </c>
       <c r="E3">
-        <v>1.050238236439371</v>
+        <v>1.01272485515051</v>
       </c>
       <c r="F3">
-        <v>1.061612165095181</v>
+        <v>1.030408302796475</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.038332649511734</v>
+        <v>1.05058778698739</v>
       </c>
       <c r="J3">
-        <v>1.046597652730279</v>
+        <v>1.013971326350597</v>
       </c>
       <c r="K3">
-        <v>1.056105527734218</v>
+        <v>1.049725976428762</v>
       </c>
       <c r="L3">
-        <v>1.052807572192282</v>
+        <v>1.023197467443306</v>
       </c>
       <c r="M3">
-        <v>1.064152462235481</v>
+        <v>1.040666343603754</v>
       </c>
       <c r="N3">
-        <v>1.019283512923265</v>
+        <v>1.007675896820446</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.042821091374123</v>
+        <v>0.9978211143508047</v>
       </c>
       <c r="D4">
-        <v>1.054069511238092</v>
+        <v>1.042123538621364</v>
       </c>
       <c r="E4">
-        <v>1.051043632110217</v>
+        <v>1.016418619291238</v>
       </c>
       <c r="F4">
-        <v>1.062373030382255</v>
+        <v>1.033937242884776</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.038440833770517</v>
+        <v>1.051355232482641</v>
       </c>
       <c r="J4">
-        <v>1.047319514645559</v>
+        <v>1.017280720945905</v>
       </c>
       <c r="K4">
-        <v>1.056508622750124</v>
+        <v>1.051738821999236</v>
       </c>
       <c r="L4">
-        <v>1.053490138980301</v>
+        <v>1.026322843724178</v>
       </c>
       <c r="M4">
-        <v>1.064792080327734</v>
+        <v>1.043642627816505</v>
       </c>
       <c r="N4">
-        <v>1.01953182650147</v>
+        <v>1.008847621727352</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.043221702675756</v>
+        <v>0.999694039903244</v>
       </c>
       <c r="D5">
-        <v>1.05428986177078</v>
+        <v>1.043178685880705</v>
       </c>
       <c r="E5">
-        <v>1.051382119395412</v>
+        <v>1.017949017887987</v>
       </c>
       <c r="F5">
-        <v>1.062692717629232</v>
+        <v>1.03539920380911</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.038485885348872</v>
+        <v>1.051669897911527</v>
       </c>
       <c r="J5">
-        <v>1.047622748418013</v>
+        <v>1.018650019868058</v>
       </c>
       <c r="K5">
-        <v>1.056677649881117</v>
+        <v>1.052570228656569</v>
       </c>
       <c r="L5">
-        <v>1.053776855249788</v>
+        <v>1.027616241838025</v>
       </c>
       <c r="M5">
-        <v>1.065060657300485</v>
+        <v>1.044873995098281</v>
       </c>
       <c r="N5">
-        <v>1.019636050493136</v>
+        <v>1.009332000877097</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.043288958919428</v>
+        <v>1.000006838425005</v>
       </c>
       <c r="D6">
-        <v>1.054326843274073</v>
+        <v>1.043354930581528</v>
       </c>
       <c r="E6">
-        <v>1.051438947077474</v>
+        <v>1.018204694713496</v>
       </c>
       <c r="F6">
-        <v>1.062746384016491</v>
+        <v>1.035643436432158</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.038493424551629</v>
+        <v>1.051722271476806</v>
       </c>
       <c r="J6">
-        <v>1.047673648917903</v>
+        <v>1.018878675002359</v>
       </c>
       <c r="K6">
-        <v>1.056706004855091</v>
+        <v>1.052708974713021</v>
       </c>
       <c r="L6">
-        <v>1.053824982498157</v>
+        <v>1.027832235583331</v>
       </c>
       <c r="M6">
-        <v>1.065105733951474</v>
+        <v>1.045079608697877</v>
       </c>
       <c r="N6">
-        <v>1.019653540399358</v>
+        <v>1.009412859699545</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.04282644491249</v>
+        <v>0.9978462536239583</v>
       </c>
       <c r="D7">
-        <v>1.05407245666686</v>
+        <v>1.042137699543476</v>
       </c>
       <c r="E7">
-        <v>1.051048155386552</v>
+        <v>1.01643915528318</v>
       </c>
       <c r="F7">
-        <v>1.062377302764921</v>
+        <v>1.033956861203718</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.03844143743767</v>
+        <v>1.051359468041379</v>
       </c>
       <c r="J7">
-        <v>1.04732356739646</v>
+        <v>1.017299102441037</v>
       </c>
       <c r="K7">
-        <v>1.056510883003236</v>
+        <v>1.051749988658179</v>
       </c>
       <c r="L7">
-        <v>1.053493971015741</v>
+        <v>1.02634020542538</v>
       </c>
       <c r="M7">
-        <v>1.064795670314767</v>
+        <v>1.043659158245448</v>
       </c>
       <c r="N7">
-        <v>1.019533219802413</v>
+        <v>1.008854125792171</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.040891992368139</v>
+        <v>0.9885619104579547</v>
       </c>
       <c r="D8">
-        <v>1.053006795040693</v>
+        <v>1.036912278189575</v>
       </c>
       <c r="E8">
-        <v>1.049413842797279</v>
+        <v>1.008865683272652</v>
       </c>
       <c r="F8">
-        <v>1.060833064241002</v>
+        <v>1.026721018406131</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.038220497676018</v>
+        <v>1.049774694454445</v>
       </c>
       <c r="J8">
-        <v>1.045858262362809</v>
+        <v>1.01050719143164</v>
       </c>
       <c r="K8">
-        <v>1.055691619781082</v>
+        <v>1.04761442702506</v>
       </c>
       <c r="L8">
-        <v>1.05210839562438</v>
+        <v>1.019926887636303</v>
       </c>
       <c r="M8">
-        <v>1.063496945612151</v>
+        <v>1.037550803900441</v>
       </c>
       <c r="N8">
-        <v>1.019028878575625</v>
+        <v>1.006447930820349</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.037478263005937</v>
+        <v>0.9711260260506972</v>
       </c>
       <c r="D9">
-        <v>1.051119988241249</v>
+        <v>1.027137091284734</v>
       </c>
       <c r="E9">
-        <v>1.046530467826436</v>
+        <v>0.9947040473722719</v>
       </c>
       <c r="F9">
-        <v>1.058105936928422</v>
+        <v>1.013191587528053</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.037817429331266</v>
+        <v>1.046706219235279</v>
       </c>
       <c r="J9">
-        <v>1.043268330267437</v>
+        <v>0.9977412832353518</v>
       </c>
       <c r="K9">
-        <v>1.054234018927504</v>
+        <v>1.039804713369698</v>
       </c>
       <c r="L9">
-        <v>1.049659072231642</v>
+        <v>1.007883636097519</v>
       </c>
       <c r="M9">
-        <v>1.061198049382963</v>
+        <v>1.026074205573629</v>
       </c>
       <c r="N9">
-        <v>1.018134729341642</v>
+        <v>1.001912435466696</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.035198739282798</v>
+        <v>0.9586483501271218</v>
       </c>
       <c r="D10">
-        <v>1.049856030061594</v>
+        <v>1.020186757126333</v>
       </c>
       <c r="E10">
-        <v>1.044605633152152</v>
+        <v>0.9846217992930633</v>
       </c>
       <c r="F10">
-        <v>1.056283658148425</v>
+        <v>1.003565497864944</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.037539460253379</v>
+        <v>1.044455291686831</v>
       </c>
       <c r="J10">
-        <v>1.041536168864759</v>
+        <v>0.9886044258641573</v>
       </c>
       <c r="K10">
-        <v>1.053252842331894</v>
+        <v>1.034200854311619</v>
       </c>
       <c r="L10">
-        <v>1.048020763976659</v>
+        <v>0.9992743762242601</v>
       </c>
       <c r="M10">
-        <v>1.059658317285326</v>
+        <v>1.017870673180767</v>
       </c>
       <c r="N10">
-        <v>1.017534899242527</v>
+        <v>0.9986591427315638</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.034210721676216</v>
+        <v>0.9530088821235398</v>
       </c>
       <c r="D11">
-        <v>1.049307265565162</v>
+        <v>1.017060982645071</v>
       </c>
       <c r="E11">
-        <v>1.043771494328792</v>
+        <v>0.9800800950755946</v>
       </c>
       <c r="F11">
-        <v>1.055493557342103</v>
+        <v>0.9992321047584336</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.037416896905845</v>
+        <v>1.043426830436788</v>
       </c>
       <c r="J11">
-        <v>1.040784755059387</v>
+        <v>0.9844761914853426</v>
       </c>
       <c r="K11">
-        <v>1.052825727908975</v>
+        <v>1.031668169832367</v>
       </c>
       <c r="L11">
-        <v>1.047310024754021</v>
+        <v>0.9953877094922856</v>
       </c>
       <c r="M11">
-        <v>1.058989868143454</v>
+        <v>1.014168517002672</v>
       </c>
       <c r="N11">
-        <v>1.017274264108796</v>
+        <v>0.9971879407018128</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.033843575427478</v>
+        <v>0.9508752562864949</v>
       </c>
       <c r="D12">
-        <v>1.049103209067178</v>
+        <v>1.015881171695772</v>
       </c>
       <c r="E12">
-        <v>1.043461552472982</v>
+        <v>0.9783643247731817</v>
       </c>
       <c r="F12">
-        <v>1.055199918671496</v>
+        <v>0.997595587451911</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.037371040338728</v>
+        <v>1.04303623664171</v>
       </c>
       <c r="J12">
-        <v>1.040505434914882</v>
+        <v>0.9829146699920838</v>
       </c>
       <c r="K12">
-        <v>1.052666737919929</v>
+        <v>1.030710309728305</v>
       </c>
       <c r="L12">
-        <v>1.047045818991387</v>
+        <v>0.9939181098899846</v>
       </c>
       <c r="M12">
-        <v>1.058741312503428</v>
+        <v>1.012768997643054</v>
       </c>
       <c r="N12">
-        <v>1.017177315161725</v>
+        <v>0.9966312958728499</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.03392233655819</v>
+        <v>0.951334743760243</v>
       </c>
       <c r="D13">
-        <v>1.049146989896405</v>
+        <v>1.016135116510124</v>
       </c>
       <c r="E13">
-        <v>1.043528040902242</v>
+        <v>0.978733706254173</v>
       </c>
       <c r="F13">
-        <v>1.055262912462175</v>
+        <v>0.9979478794548766</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.037380891717085</v>
+        <v>1.043120417084777</v>
       </c>
       <c r="J13">
-        <v>1.040565359686773</v>
+        <v>0.983250933539101</v>
       </c>
       <c r="K13">
-        <v>1.052700857250645</v>
+        <v>1.030916568235171</v>
       </c>
       <c r="L13">
-        <v>1.047102501393055</v>
+        <v>0.9942345527356331</v>
       </c>
       <c r="M13">
-        <v>1.058794640524166</v>
+        <v>1.013070334287628</v>
       </c>
       <c r="N13">
-        <v>1.01719811728466</v>
+        <v>0.9967511721688435</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.034180376404526</v>
+        <v>0.95283332982633</v>
       </c>
       <c r="D14">
-        <v>1.049290402705554</v>
+        <v>1.016963849817814</v>
       </c>
       <c r="E14">
-        <v>1.043745876617704</v>
+        <v>0.9799388705668456</v>
       </c>
       <c r="F14">
-        <v>1.0554692883633</v>
+        <v>0.9990973914289552</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.037413113144158</v>
+        <v>1.043394721883775</v>
       </c>
       <c r="J14">
-        <v>1.040761670713552</v>
+        <v>0.984347703313846</v>
       </c>
       <c r="K14">
-        <v>1.05281259270451</v>
+        <v>1.03158934899816</v>
       </c>
       <c r="L14">
-        <v>1.047288189640682</v>
+        <v>0.9952667734818245</v>
       </c>
       <c r="M14">
-        <v>1.058969327858125</v>
+        <v>1.014053340960131</v>
       </c>
       <c r="N14">
-        <v>1.017266253091466</v>
+        <v>0.9971421407114885</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.034339342851016</v>
+        <v>0.9537513996296164</v>
       </c>
       <c r="D15">
-        <v>1.049378734757566</v>
+        <v>1.017471932659946</v>
       </c>
       <c r="E15">
-        <v>1.043880078269377</v>
+        <v>0.9806775239041333</v>
       </c>
       <c r="F15">
-        <v>1.055596422053865</v>
+        <v>0.9998020125064794</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.037432921944389</v>
+        <v>1.043562577708877</v>
       </c>
       <c r="J15">
-        <v>1.040882596233072</v>
+        <v>0.9850196612078287</v>
       </c>
       <c r="K15">
-        <v>1.052881391421487</v>
+        <v>1.032001567492304</v>
       </c>
       <c r="L15">
-        <v>1.047402570935182</v>
+        <v>0.9958992583488234</v>
       </c>
       <c r="M15">
-        <v>1.059076923428881</v>
+        <v>1.014655715171504</v>
       </c>
       <c r="N15">
-        <v>1.017308215551026</v>
+        <v>0.9973816559609212</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.035264289752142</v>
+        <v>0.9590173637896763</v>
       </c>
       <c r="D16">
-        <v>1.049892418840206</v>
+        <v>1.020391648279824</v>
       </c>
       <c r="E16">
-        <v>1.044660977642916</v>
+        <v>0.9849193158058617</v>
       </c>
       <c r="F16">
-        <v>1.056336072284097</v>
+        <v>1.003849437835695</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.037547547972775</v>
+        <v>1.044522372894626</v>
       </c>
       <c r="J16">
-        <v>1.041586008314333</v>
+        <v>0.9888745925825339</v>
       </c>
       <c r="K16">
-        <v>1.053281140809892</v>
+        <v>1.034366607560634</v>
       </c>
       <c r="L16">
-        <v>1.048067904795969</v>
+        <v>0.9995288055223686</v>
       </c>
       <c r="M16">
-        <v>1.05970264322635</v>
+        <v>1.018113061085017</v>
       </c>
       <c r="N16">
-        <v>1.017552177546053</v>
+        <v>0.9987553998739985</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.03584422022522</v>
+        <v>0.9622550047455374</v>
       </c>
       <c r="D17">
-        <v>1.050214246934122</v>
+        <v>1.022191120071092</v>
       </c>
       <c r="E17">
-        <v>1.045150631924554</v>
+        <v>0.9875313921338118</v>
       </c>
       <c r="F17">
-        <v>1.056799753882845</v>
+        <v>1.006342651899986</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.037618860312269</v>
+        <v>1.045109692616323</v>
       </c>
       <c r="J17">
-        <v>1.042026868224827</v>
+        <v>0.9912451367183107</v>
       </c>
       <c r="K17">
-        <v>1.053531287423098</v>
+        <v>1.035820933230743</v>
       </c>
       <c r="L17">
-        <v>1.048484889248932</v>
+        <v>1.001761631172687</v>
       </c>
       <c r="M17">
-        <v>1.06009467396498</v>
+        <v>1.020240377947439</v>
       </c>
       <c r="N17">
-        <v>1.017704965160524</v>
+        <v>0.9995998543927838</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.036182390857445</v>
+        <v>0.9641208885313024</v>
       </c>
       <c r="D18">
-        <v>1.050401822815365</v>
+        <v>1.023229601681937</v>
       </c>
       <c r="E18">
-        <v>1.045436174381919</v>
+        <v>0.9890381600612853</v>
       </c>
       <c r="F18">
-        <v>1.057070111208398</v>
+        <v>1.00778111164695</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.037660243267602</v>
+        <v>1.045447112235715</v>
       </c>
       <c r="J18">
-        <v>1.042283881867126</v>
+        <v>0.9926114160156965</v>
       </c>
       <c r="K18">
-        <v>1.053676975893755</v>
+        <v>1.036659057217453</v>
       </c>
       <c r="L18">
-        <v>1.048727980124275</v>
+        <v>1.003048830420151</v>
       </c>
       <c r="M18">
-        <v>1.060323171680263</v>
+        <v>1.021466871197966</v>
       </c>
       <c r="N18">
-        <v>1.017793996400547</v>
+        <v>1.000086437385925</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.036297682739239</v>
+        <v>0.9647533717954903</v>
       </c>
       <c r="D19">
-        <v>1.050465757464027</v>
+        <v>1.023581847937878</v>
       </c>
       <c r="E19">
-        <v>1.045533526158401</v>
+        <v>0.9895491437248525</v>
       </c>
       <c r="F19">
-        <v>1.057162279160895</v>
+        <v>1.008268970170614</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.037674317784269</v>
+        <v>1.045561303510961</v>
       </c>
       <c r="J19">
-        <v>1.042371494550038</v>
+        <v>0.9930745618486454</v>
       </c>
       <c r="K19">
-        <v>1.053726614992416</v>
+        <v>1.036943145551198</v>
       </c>
       <c r="L19">
-        <v>1.048810846056492</v>
+        <v>1.003485217540403</v>
       </c>
       <c r="M19">
-        <v>1.060401055235464</v>
+        <v>1.021882694702446</v>
       </c>
       <c r="N19">
-        <v>1.017824339009463</v>
+        <v>1.000251358768866</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.035782008844023</v>
+        <v>0.9619099945807514</v>
       </c>
       <c r="D20">
-        <v>1.050179732418937</v>
+        <v>1.021999212850267</v>
       </c>
       <c r="E20">
-        <v>1.045098103368823</v>
+        <v>0.9872528959743018</v>
       </c>
       <c r="F20">
-        <v>1.056750015636144</v>
+        <v>1.006076801075302</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.0376112311381</v>
+        <v>1.04504721527163</v>
       </c>
       <c r="J20">
-        <v>1.0419795818671</v>
+        <v>0.9909925136679054</v>
       </c>
       <c r="K20">
-        <v>1.053504471598666</v>
+        <v>1.035665956629805</v>
       </c>
       <c r="L20">
-        <v>1.048440164146881</v>
+        <v>1.001523653328899</v>
       </c>
       <c r="M20">
-        <v>1.06005263009264</v>
+        <v>1.020013632296039</v>
       </c>
       <c r="N20">
-        <v>1.017688581525095</v>
+        <v>0.9995098755983429</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.034104394367651</v>
+        <v>0.9523931356974779</v>
       </c>
       <c r="D21">
-        <v>1.049248177316566</v>
+        <v>1.016720337527134</v>
       </c>
       <c r="E21">
-        <v>1.043681732379001</v>
+        <v>0.9795847943390126</v>
       </c>
       <c r="F21">
-        <v>1.055408520250604</v>
+        <v>0.9987596493778955</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.037403633879914</v>
+        <v>1.043314187011622</v>
       </c>
       <c r="J21">
-        <v>1.040703867888979</v>
+        <v>0.9840255277316889</v>
       </c>
       <c r="K21">
-        <v>1.052779698813627</v>
+        <v>1.031391714082895</v>
       </c>
       <c r="L21">
-        <v>1.047233514787775</v>
+        <v>0.9949635435031678</v>
       </c>
       <c r="M21">
-        <v>1.058917894102096</v>
+        <v>1.013764558746126</v>
       </c>
       <c r="N21">
-        <v>1.017246192601306</v>
+        <v>0.997027297882205</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.033048725660299</v>
+        <v>0.9461826031508037</v>
       </c>
       <c r="D22">
-        <v>1.048661192784879</v>
+        <v>1.01329200725487</v>
       </c>
       <c r="E22">
-        <v>1.042790590758119</v>
+        <v>0.9745956723524822</v>
       </c>
       <c r="F22">
-        <v>1.054564141096988</v>
+        <v>0.9940021977877793</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.037271193486909</v>
+        <v>1.04217464646954</v>
       </c>
       <c r="J22">
-        <v>1.039900549225213</v>
+        <v>0.9794811141592531</v>
       </c>
       <c r="K22">
-        <v>1.052322033666761</v>
+        <v>1.028604667024275</v>
       </c>
       <c r="L22">
-        <v>1.046473655026667</v>
+        <v>0.990687770368492</v>
       </c>
       <c r="M22">
-        <v>1.058202912294017</v>
+        <v>1.009693416094972</v>
       </c>
       <c r="N22">
-        <v>1.016967249098488</v>
+        <v>0.9954070713757661</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.033608441924523</v>
+        <v>0.9494976620081863</v>
       </c>
       <c r="D23">
-        <v>1.048972486032536</v>
+        <v>1.015120263355516</v>
       </c>
       <c r="E23">
-        <v>1.043263061400003</v>
+        <v>0.97725727052713</v>
       </c>
       <c r="F23">
-        <v>1.055011851575952</v>
+        <v>0.9965398437859376</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.037341584379447</v>
+        <v>1.042783651338501</v>
       </c>
       <c r="J23">
-        <v>1.040326521529508</v>
+        <v>0.9819065781351841</v>
       </c>
       <c r="K23">
-        <v>1.052564837977508</v>
+        <v>1.030092003505333</v>
       </c>
       <c r="L23">
-        <v>1.046876585373671</v>
+        <v>0.992969524993623</v>
       </c>
       <c r="M23">
-        <v>1.058582083614892</v>
+        <v>1.011865751200663</v>
       </c>
       <c r="N23">
-        <v>1.01711519829346</v>
+        <v>0.9962718962040747</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.035810119777039</v>
+        <v>0.9620659593472028</v>
       </c>
       <c r="D24">
-        <v>1.050195328478798</v>
+        <v>1.022085961730889</v>
       </c>
       <c r="E24">
-        <v>1.045121838962098</v>
+        <v>0.9873787881825989</v>
       </c>
       <c r="F24">
-        <v>1.056772490519255</v>
+        <v>1.006196976261341</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.03761467908973</v>
+        <v>1.045075461985239</v>
       </c>
       <c r="J24">
-        <v>1.04200094894643</v>
+        <v>0.9911067137209146</v>
       </c>
       <c r="K24">
-        <v>1.053516589188829</v>
+        <v>1.035736015195569</v>
       </c>
       <c r="L24">
-        <v>1.048460373894581</v>
+        <v>1.001631232000782</v>
       </c>
       <c r="M24">
-        <v>1.060071628425759</v>
+        <v>1.020116133058011</v>
       </c>
       <c r="N24">
-        <v>1.01769598485427</v>
+        <v>0.9995505515428991</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.038361420407233</v>
+        <v>0.9757736587247003</v>
       </c>
       <c r="D25">
-        <v>1.051608841952298</v>
+        <v>1.029736487756415</v>
       </c>
       <c r="E25">
-        <v>1.047276328250823</v>
+        <v>0.998470811171131</v>
       </c>
       <c r="F25">
-        <v>1.058811691210433</v>
+        <v>1.01678957569119</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.037923262542851</v>
+        <v>1.047534101224904</v>
       </c>
       <c r="J25">
-        <v>1.043938848313641</v>
+        <v>1.001144776794124</v>
       </c>
       <c r="K25">
-        <v>1.054612503521149</v>
+        <v>1.041890077301871</v>
       </c>
       <c r="L25">
-        <v>1.050293222161848</v>
+        <v>1.011092912299661</v>
       </c>
       <c r="M25">
-        <v>1.061793615065696</v>
+        <v>1.029132728416666</v>
       </c>
       <c r="N25">
-        <v>1.0183665402894</v>
+        <v>1.003122972041942</v>
       </c>
     </row>
   </sheetData>
